--- a/templates/Hackathon_cultivation_conditions.xlsx
+++ b/templates/Hackathon_cultivation_conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Documents\ARC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2085DF22-A835-43A6-B185-0F9252B08CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1591EE-C7A1-436F-BB2B-92850D609436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5175C398-6057-4720-8A59-77326B96BF47}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{5175C398-6057-4720-8A59-77326B96BF47}"/>
   </bookViews>
   <sheets>
     <sheet name="cultivation conditions" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,88 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={35EC8269-CD36-485E-96D5-75A814C305C0}</author>
+    <author>tc={3E3C3E80-90BF-4586-975B-59790E1F9749}</author>
+    <author>tc={DE8F53F0-7063-4BF6-A8EE-48F77814BD42}</author>
+    <author>tc={4A37E8F7-E11F-4BCC-980B-16DBDDB40BCB}</author>
+    <author>tc={3A2BA122-F85E-4DE5-BCD2-9E10C916F2CA}</author>
+    <author>tc={091B01EC-C895-4B9E-8903-6654A784453A}</author>
+    <author>tc={317BA810-A9A5-49E6-AE2A-197B7936D421}</author>
+    <author>tc={50444719-F78F-47BE-8B59-DD1C7EB945D5}</author>
+    <author>tc={FD93267E-DA44-4041-BB07-4D5B4626D6A3}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{35EC8269-CD36-485E-96D5-75A814C305C0}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The unique identifier of this template. It will be auto generated.
-Antwort:
+Reply:
     id=17602c2c-0500-43b9-9697-7c638aee2271</t>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{3E3C3E80-90BF-4586-975B-59790E1F9749}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate template.</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{DE8F53F0-7063-4BF6-A8EE-48F77814BD42}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The current version of this template in SemVer notation.</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{4A37E8F7-E11F-4BCC-980B-16DBDDB40BCB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The description of this template. Use few sentences for succinctness.</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{3A2BA122-F85E-4DE5-BCD2-9E10C916F2CA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{091B01EC-C895-4B9E-8903-6654A784453A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate annotation table in the workbook of the template's excel file.</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{317BA810-A9A5-49E6-AE2A-197B7936D421}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{50444719-F78F-47BE-8B59-DD1C7EB945D5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{FD93267E-DA44-4041-BB07-4D5B4626D6A3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The author(s) of this template.</t>
       </text>
     </comment>
   </commentList>
@@ -55,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Source Name</t>
   </si>
@@ -129,9 +201,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Docslink</t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -189,18 +258,6 @@
     <t>Authors Affiliation</t>
   </si>
   <si>
-    <t>#AUTHORS ROLES list</t>
-  </si>
-  <si>
-    <t>Authors Roles</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Accession Number</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Source REF</t>
-  </si>
-  <si>
     <t>17602c2c-0500-43b9-9697-7c638aee2271</t>
   </si>
   <si>
@@ -262,13 +319,25 @@
   </si>
   <si>
     <t>Term Accession Number (NFDI4PSO:1000157)</t>
+  </si>
+  <si>
+    <t>Authors ORCID</t>
+  </si>
+  <si>
+    <t>Authors Role</t>
+  </si>
+  <si>
+    <t>Authors Role Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Role Term Source REF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +360,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -442,8 +517,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,6 +535,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kevin F" id="{6E1D5E4E-2542-4B2B-947E-CB1A2FBADE61}" userId="b000b0ea35d13fa4" providerId="Windows Live"/>
   <person displayName="Fabian Haas" id="{FC3DC73D-9B5B-4EDD-819F-1F271E7B2BA6}" userId="b3b1f7033b8df0eb" providerId="Windows Live"/>
 </personList>
 </file>
@@ -503,7 +579,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -805,6 +881,30 @@
   <threadedComment ref="A1" dT="2021-12-15T22:39:22.74" personId="{FC3DC73D-9B5B-4EDD-819F-1F271E7B2BA6}" id="{558C397E-9D50-450D-82E5-8A5E73C496FC}" parentId="{35EC8269-CD36-485E-96D5-75A814C305C0}">
     <text>id=17602c2c-0500-43b9-9697-7c638aee2271</text>
   </threadedComment>
+  <threadedComment ref="A2" dT="2022-03-04T14:02:18.75" personId="{6E1D5E4E-2542-4B2B-947E-CB1A2FBADE61}" id="{3E3C3E80-90BF-4586-975B-59790E1F9749}">
+    <text>The name of the Swate template.</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2022-03-04T14:02:18.76" personId="{6E1D5E4E-2542-4B2B-947E-CB1A2FBADE61}" id="{DE8F53F0-7063-4BF6-A8EE-48F77814BD42}">
+    <text>The current version of this template in SemVer notation.</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2022-03-04T14:02:18.76" personId="{6E1D5E4E-2542-4B2B-947E-CB1A2FBADE61}" id="{4A37E8F7-E11F-4BCC-980B-16DBDDB40BCB}">
+    <text>The description of this template. Use few sentences for succinctness.</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2022-03-04T14:02:18.76" personId="{6E1D5E4E-2542-4B2B-947E-CB1A2FBADE61}" id="{3A2BA122-F85E-4DE5-BCD2-9E10C916F2CA}">
+    <text>The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2022-03-04T14:02:18.76" personId="{6E1D5E4E-2542-4B2B-947E-CB1A2FBADE61}" id="{091B01EC-C895-4B9E-8903-6654A784453A}">
+    <text>The name of the Swate annotation table in the workbook of the template's excel file.</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2022-03-04T14:02:18.76" personId="{6E1D5E4E-2542-4B2B-947E-CB1A2FBADE61}" id="{317BA810-A9A5-49E6-AE2A-197B7936D421}">
+    <text>A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2022-03-04T14:02:18.77" personId="{6E1D5E4E-2542-4B2B-947E-CB1A2FBADE61}" id="{50444719-F78F-47BE-8B59-DD1C7EB945D5}">
+    <text>A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2022-03-04T14:02:18.77" personId="{6E1D5E4E-2542-4B2B-947E-CB1A2FBADE61}" id="{FD93267E-DA44-4041-BB07-4D5B4626D6A3}">
+    <text>The author(s) of this template.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -847,7 +947,7 @@
       <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -883,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -910,22 +1010,22 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q1" t="s">
         <v>8</v>
@@ -977,16 +1077,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88FEFE3-A362-41F9-BF58-44BAAD965CD6}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -994,7 +1095,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,7 +1103,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1010,7 +1111,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1018,42 +1119,42 @@
         <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1062,78 +1163,84 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>57</v>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1155,37 +1262,31 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="7"/>
+      <c r="A25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="9"/>
+      <c r="A27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{8C71426C-8955-4602-9957-62666CE39840}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{8C71426C-8955-4602-9957-62666CE39840}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
